--- a/flask/app/static/files/plantillas/carga_masiva_usuarios.xlsx
+++ b/flask/app/static/files/plantillas/carga_masiva_usuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Desktop\LabEIT\flask\app\static\files\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29067659-D7BD-42E7-93F5-6120DB756674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8281C3FF-C35F-483A-984E-E35496FE6EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,10 +109,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -113,8 +122,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -147,8 +160,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -164,7 +177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6019800" y="88900"/>
-          <a:ext cx="3987800" cy="3168650"/>
+          <a:ext cx="3987800" cy="4718050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -202,6 +215,232 @@
             <a:rPr lang="es-CL" sz="1100" b="1" u="sng"/>
             <a:t>INDICACIONES:</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-CL" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La información de los usuarios se puede obtener a través de la plataforma Canvas, accediendo a la sección de </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'Calificaciones'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> y utilizando la opción de exportación ubicada en el menú de </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'Acciones'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>En dicho archivo exportado encontrará las columnas necesarias según el formato solicitado, donde </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'Student'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'SIS User ID'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> y </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'SIS Login ID'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> corresponden al </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nombre del usuario</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, su </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RUT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> y </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>correo electrónico</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> respectivamente.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-CL" sz="1100" b="1" u="sng"/>
         </a:p>
         <a:p>
           <a:r>
@@ -590,7 +829,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,7 +880,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
